--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>62.52192054305748</v>
+        <v>31.63420298563875</v>
       </c>
       <c r="R2">
-        <v>250.0876821722299</v>
+        <v>126.536811942555</v>
       </c>
       <c r="S2">
-        <v>0.0007763688241592592</v>
+        <v>0.0003044058083030576</v>
       </c>
       <c r="T2">
-        <v>0.0003889286073766305</v>
+        <v>0.0001500400247692763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>2.219156390763166</v>
+        <v>2.064619881584167</v>
       </c>
       <c r="R3">
-        <v>13.314938344579</v>
+        <v>12.387719289505</v>
       </c>
       <c r="S3">
-        <v>2.755647655666291E-05</v>
+        <v>1.986717617565736E-05</v>
       </c>
       <c r="T3">
-        <v>2.070697917899229E-05</v>
+        <v>1.468864025020609E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>9517.456049570617</v>
+        <v>14478.22710988802</v>
       </c>
       <c r="R4">
-        <v>57104.7362974237</v>
+        <v>86869.36265932811</v>
       </c>
       <c r="S4">
-        <v>0.1181834482692176</v>
+        <v>0.1393193445771813</v>
       </c>
       <c r="T4">
-        <v>0.08880751490779705</v>
+        <v>0.1030046602645081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>52.98274085964599</v>
+        <v>27.299299809705</v>
       </c>
       <c r="R5">
-        <v>317.896445157876</v>
+        <v>109.19719923882</v>
       </c>
       <c r="S5">
-        <v>0.0006579156216676023</v>
+        <v>0.0002626924227695367</v>
       </c>
       <c r="T5">
-        <v>0.0004943826926273266</v>
+        <v>0.0001294797160368329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>11629.93582976375</v>
+        <v>2000.126811849215</v>
       </c>
       <c r="R6">
-        <v>69779.61497858248</v>
+        <v>12000.76087109529</v>
       </c>
       <c r="S6">
-        <v>0.1444152631073315</v>
+        <v>0.01924658001170388</v>
       </c>
       <c r="T6">
-        <v>0.1085190931483275</v>
+        <v>0.01422980736362103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.40792233333334</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>187.223767</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>20.00142706822167</v>
+        <v>6733.649845361502</v>
       </c>
       <c r="R7">
-        <v>120.00856240933</v>
+        <v>40401.89907216901</v>
       </c>
       <c r="S7">
-        <v>0.0002483686406237042</v>
+        <v>0.06479575682490166</v>
       </c>
       <c r="T7">
-        <v>0.0001866335944486393</v>
+        <v>0.04790623253781685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>0.7099317218232223</v>
+        <v>10.8776072508165</v>
       </c>
       <c r="R8">
-        <v>6.389385496409</v>
+        <v>65.265643504899</v>
       </c>
       <c r="S8">
-        <v>8.815609810413218E-06</v>
+        <v>0.0001046717323363959</v>
       </c>
       <c r="T8">
-        <v>9.93657417081189E-06</v>
+        <v>7.738822100641645E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>3044.735372762472</v>
+        <v>0.7099317218232223</v>
       </c>
       <c r="R9">
-        <v>27402.61835486225</v>
+        <v>6.389385496409</v>
       </c>
       <c r="S9">
-        <v>0.03780814153973054</v>
+        <v>6.831445689328334E-06</v>
       </c>
       <c r="T9">
-        <v>0.0426157022315484</v>
+        <v>7.576163358508462E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>16.949742074044</v>
+        <v>4978.423773185697</v>
       </c>
       <c r="R10">
-        <v>152.547678666396</v>
+        <v>44805.81395867127</v>
       </c>
       <c r="S10">
-        <v>0.0002104742018403893</v>
+        <v>0.04790577823123082</v>
       </c>
       <c r="T10">
-        <v>0.0002372374189201359</v>
+        <v>0.05312813981135046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>3720.540112758061</v>
+        <v>9.387025229846</v>
       </c>
       <c r="R11">
-        <v>33484.86101482254</v>
+        <v>56.322151379076</v>
       </c>
       <c r="S11">
-        <v>0.04619997798356304</v>
+        <v>9.032833872722173E-05</v>
       </c>
       <c r="T11">
-        <v>0.05207461738849715</v>
+        <v>6.678354589660338E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.8621113333333</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>428.586334</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.1933791023142199</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.2177549443006804</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>45.78659237177666</v>
+        <v>687.7553994643247</v>
       </c>
       <c r="R12">
-        <v>274.71955423066</v>
+        <v>6189.798595178922</v>
       </c>
       <c r="S12">
-        <v>0.0005685571168188111</v>
+        <v>0.00661805003855395</v>
       </c>
       <c r="T12">
-        <v>0.0004272353308967714</v>
+        <v>0.007339504767664725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.8621113333333</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>428.586334</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.1933791023142199</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.2177549443006804</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>1.625151757824222</v>
+        <v>2315.405209216613</v>
       </c>
       <c r="R13">
-        <v>14.626365820418</v>
+        <v>20838.64688294951</v>
       </c>
       <c r="S13">
-        <v>2.018039670475937E-05</v>
+        <v>0.02228040309979257</v>
       </c>
       <c r="T13">
-        <v>2.274647051828285E-05</v>
+        <v>0.0247092608583767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>6969.90554309481</v>
+        <v>29.9789989224525</v>
       </c>
       <c r="R14">
-        <v>62729.14988785329</v>
+        <v>179.873993534715</v>
       </c>
       <c r="S14">
-        <v>0.08654912267557477</v>
+        <v>0.0002884783094819412</v>
       </c>
       <c r="T14">
-        <v>0.09755442849440661</v>
+        <v>0.0002132841663305805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>38.800777989688</v>
+        <v>1.956592275562778</v>
       </c>
       <c r="R15">
-        <v>349.207001907192</v>
+        <v>17.609330480065</v>
       </c>
       <c r="S15">
-        <v>0.0004818104454032725</v>
+        <v>1.882766110568977E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005430758994535308</v>
+        <v>2.08801244542085E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.61647133333334</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N16">
-        <v>178.849414</v>
+        <v>239.316913</v>
       </c>
       <c r="O16">
-        <v>0.546902071703026</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P16">
-        <v>0.5474385827988417</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q16">
-        <v>8516.934964923143</v>
+        <v>13720.67932684764</v>
       </c>
       <c r="R16">
-        <v>76652.41468430829</v>
+        <v>123486.1139416287</v>
       </c>
       <c r="S16">
-        <v>0.1057594316797183</v>
+        <v>0.1320297047740453</v>
       </c>
       <c r="T16">
-        <v>0.1192074581054052</v>
+        <v>0.1464226837236495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.01711450000001</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>106.034229</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.07176431814995911</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.05387357411601602</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.320495</v>
+        <v>0.150414</v>
       </c>
       <c r="N17">
-        <v>0.6409899999999999</v>
+        <v>0.300828</v>
       </c>
       <c r="O17">
-        <v>0.002940116641429889</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P17">
-        <v>0.001962000597822644</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q17">
-        <v>16.9917201116775</v>
+        <v>25.87091193511</v>
       </c>
       <c r="R17">
-        <v>67.96688044671001</v>
+        <v>155.22547161066</v>
       </c>
       <c r="S17">
-        <v>0.0002109954660535638</v>
+        <v>0.0002489475035207802</v>
       </c>
       <c r="T17">
-        <v>0.0001056999846224659</v>
+        <v>0.0001840573762507878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.01711450000001</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>106.034229</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.07176431814995911</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.05387357411601602</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01137566666666667</v>
+        <v>11.020322</v>
       </c>
       <c r="N18">
-        <v>0.034127</v>
+        <v>33.060966</v>
       </c>
       <c r="O18">
-        <v>0.0001043566572771055</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P18">
-        <v>0.0001044590311890878</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q18">
-        <v>0.6031050221805</v>
+        <v>1895.473692332863</v>
       </c>
       <c r="R18">
-        <v>3.618630133083</v>
+        <v>17059.26323099577</v>
       </c>
       <c r="S18">
-        <v>7.489084353900447E-06</v>
+        <v>0.01823953654510306</v>
       </c>
       <c r="T18">
-        <v>5.627581358852549E-06</v>
+        <v>0.02022788656068086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.01711450000001</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>106.034229</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.07176431814995911</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.05387357411601602</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.78764200000001</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N19">
-        <v>146.362926</v>
+        <v>111.303427</v>
       </c>
       <c r="O19">
-        <v>0.4475619218406646</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P19">
-        <v>0.4480009802197716</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q19">
-        <v>2586.58000209901</v>
+        <v>6381.323453918174</v>
       </c>
       <c r="R19">
-        <v>15519.48001259406</v>
+        <v>57431.91108526356</v>
       </c>
       <c r="S19">
-        <v>0.03211897615078059</v>
+        <v>0.06140543274995989</v>
       </c>
       <c r="T19">
-        <v>0.0241354140119177</v>
+        <v>0.06809943469803706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.271596</v>
+        <v>0.1742985</v>
       </c>
       <c r="N20">
-        <v>0.8147880000000001</v>
+        <v>0.348597</v>
       </c>
       <c r="O20">
-        <v>0.002491533157602434</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P20">
-        <v>0.00249397735237479</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q20">
-        <v>14.399236229742</v>
+        <v>9.69845579145675</v>
       </c>
       <c r="R20">
-        <v>86.39541737845201</v>
+        <v>38.793823165827</v>
       </c>
       <c r="S20">
-        <v>0.0001788031782033533</v>
+        <v>9.332513532362826E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001343594737368287</v>
+        <v>4.599946924012948E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>59.61647133333334</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N21">
-        <v>178.849414</v>
+        <v>0.034127</v>
       </c>
       <c r="O21">
-        <v>0.546902071703026</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P21">
-        <v>0.5474385827988417</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q21">
-        <v>3160.693286765302</v>
+        <v>0.6329738940095</v>
       </c>
       <c r="R21">
-        <v>18964.15972059181</v>
+        <v>3.797843364057</v>
       </c>
       <c r="S21">
-        <v>0.0392480542705677</v>
+        <v>6.090905148714154E-06</v>
       </c>
       <c r="T21">
-        <v>0.02949247306438017</v>
+        <v>4.503262755439372E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.783834</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>431.351502</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.1946267522348261</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.2191598631141254</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.320495</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N22">
-        <v>0.6409899999999999</v>
+        <v>239.316913</v>
       </c>
       <c r="O22">
-        <v>0.002940116641429889</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P22">
-        <v>0.001962000597822644</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q22">
-        <v>46.08199987782999</v>
+        <v>4438.754016583432</v>
       </c>
       <c r="R22">
-        <v>276.49199926698</v>
+        <v>26632.52409950058</v>
       </c>
       <c r="S22">
-        <v>0.000572225353113064</v>
+        <v>0.04271270892742044</v>
       </c>
       <c r="T22">
-        <v>0.0004299917824486428</v>
+        <v>0.03157930498020994</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.783834</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>431.351502</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.1946267522348261</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.2191598631141254</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01137566666666667</v>
+        <v>0.150414</v>
       </c>
       <c r="N23">
-        <v>0.034127</v>
+        <v>0.300828</v>
       </c>
       <c r="O23">
-        <v>0.0001043566572771055</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P23">
-        <v>0.0001044590311890878</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q23">
-        <v>1.635636967639333</v>
+        <v>8.369455442337001</v>
       </c>
       <c r="R23">
-        <v>14.720732708754</v>
+        <v>33.477821769348</v>
       </c>
       <c r="S23">
-        <v>2.031059727992588E-05</v>
+        <v>8.05365904156847E-05</v>
       </c>
       <c r="T23">
-        <v>2.289322697643464E-05</v>
+        <v>3.969606259540292E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.783834</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>431.351502</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.1946267522348261</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.2191598631141254</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.78764200000001</v>
+        <v>11.020322</v>
       </c>
       <c r="N24">
-        <v>146.362926</v>
+        <v>33.060966</v>
       </c>
       <c r="O24">
-        <v>0.4475619218406646</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P24">
-        <v>0.4480009802197716</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q24">
-        <v>7014.874218579428</v>
+        <v>613.2015233901511</v>
       </c>
       <c r="R24">
-        <v>63133.86796721486</v>
+        <v>3679.209140340906</v>
       </c>
       <c r="S24">
-        <v>0.08710752327182564</v>
+        <v>0.005900641955954629</v>
       </c>
       <c r="T24">
-        <v>0.09818383349995917</v>
+        <v>0.004362593162207267</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.783834</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>431.351502</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.1946267522348261</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.2191598631141254</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.271596</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N25">
-        <v>0.8147880000000001</v>
+        <v>111.303427</v>
       </c>
       <c r="O25">
-        <v>0.002491533157602434</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P25">
-        <v>0.00249397735237479</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q25">
-        <v>39.05111417906399</v>
+        <v>2064.41127567006</v>
       </c>
       <c r="R25">
-        <v>351.460027611576</v>
+        <v>12386.46765402036</v>
       </c>
       <c r="S25">
-        <v>0.0004849190065495429</v>
+        <v>0.01986516882772673</v>
       </c>
       <c r="T25">
-        <v>0.0005465797351561879</v>
+        <v>0.01468715613332157</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>59.61647133333334</v>
+        <v>0.1742985</v>
       </c>
       <c r="N26">
-        <v>178.849414</v>
+        <v>0.348597</v>
       </c>
       <c r="O26">
-        <v>0.546902071703026</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P26">
-        <v>0.5474385827988417</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q26">
-        <v>8571.884817857759</v>
+        <v>35.4499299736245</v>
       </c>
       <c r="R26">
-        <v>77146.96336071983</v>
+        <v>212.699579841747</v>
       </c>
       <c r="S26">
-        <v>0.1064417740060579</v>
+        <v>0.000341123327583341</v>
       </c>
       <c r="T26">
-        <v>0.119976564869585</v>
+        <v>0.0002522068458810105</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.6168416666667</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>424.850525</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1916934970264942</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2158568649262854</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.320495</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N27">
-        <v>0.6409899999999999</v>
+        <v>0.034127</v>
       </c>
       <c r="O27">
-        <v>0.002940116641429889</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P27">
-        <v>0.001962000597822644</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q27">
-        <v>45.38748966995833</v>
+        <v>2.313654946753</v>
       </c>
       <c r="R27">
-        <v>272.32493801975</v>
+        <v>20.822894520777</v>
       </c>
       <c r="S27">
-        <v>0.0005636012406614863</v>
+        <v>2.226356088441511E-05</v>
       </c>
       <c r="T27">
-        <v>0.0004235112980294936</v>
+        <v>2.469058261941797E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.6168416666667</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>424.850525</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1916934970264942</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2158568649262854</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01137566666666667</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N28">
-        <v>0.034127</v>
+        <v>239.316913</v>
       </c>
       <c r="O28">
-        <v>0.0001043566572771055</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P28">
-        <v>0.0001044590311890878</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q28">
-        <v>1.610985985186111</v>
+        <v>16224.59517695981</v>
       </c>
       <c r="R28">
-        <v>14.498873866675</v>
+        <v>146021.3565926383</v>
       </c>
       <c r="S28">
-        <v>2.00044925714437E-05</v>
+        <v>0.1561240854234411</v>
       </c>
       <c r="T28">
-        <v>2.254819898571356E-05</v>
+        <v>0.1731436696061934</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.6168416666667</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>424.850525</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1916934970264942</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2158568649262854</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>48.78764200000001</v>
+        <v>0.150414</v>
       </c>
       <c r="N29">
-        <v>146.362926</v>
+        <v>0.300828</v>
       </c>
       <c r="O29">
-        <v>0.4475619218406646</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P29">
-        <v>0.4480009802197716</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q29">
-        <v>6909.151772404017</v>
+        <v>30.592149485238</v>
       </c>
       <c r="R29">
-        <v>62182.36595163616</v>
+        <v>183.552896911428</v>
       </c>
       <c r="S29">
-        <v>0.08579470993353545</v>
+        <v>0.0002943784610603112</v>
       </c>
       <c r="T29">
-        <v>0.09670408707414271</v>
+        <v>0.0002176463969359823</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.6168416666667</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>424.850525</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1916934970264942</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2158568649262854</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.271596</v>
+        <v>11.020322</v>
       </c>
       <c r="N30">
-        <v>0.8147880000000001</v>
+        <v>33.060966</v>
       </c>
       <c r="O30">
-        <v>0.002491533157602434</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P30">
-        <v>0.00249397735237479</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q30">
-        <v>38.4625677293</v>
+        <v>2241.382703734074</v>
       </c>
       <c r="R30">
-        <v>346.1631095637</v>
+        <v>20172.44433360667</v>
       </c>
       <c r="S30">
-        <v>0.0004776107039382738</v>
+        <v>0.02156810822628939</v>
       </c>
       <c r="T30">
-        <v>0.00053834213248078</v>
+        <v>0.02391931645034044</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.6168416666667</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>424.850525</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1916934970264942</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2158568649262854</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.61647133333334</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N31">
-        <v>178.849414</v>
+        <v>111.303427</v>
       </c>
       <c r="O31">
-        <v>0.546902071703026</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P31">
-        <v>0.5474385827988417</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q31">
-        <v>8442.69638153804</v>
+        <v>7545.864695669453</v>
       </c>
       <c r="R31">
-        <v>75984.26743384237</v>
+        <v>67912.78226102507</v>
       </c>
       <c r="S31">
-        <v>0.1048375706557875</v>
+        <v>0.07261144031583651</v>
       </c>
       <c r="T31">
-        <v>0.1181683762226467</v>
+        <v>0.0805270448667582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>135.4992116666667</v>
+      </c>
+      <c r="H32">
+        <v>406.497635</v>
+      </c>
+      <c r="I32">
+        <v>0.167194491092333</v>
+      </c>
+      <c r="J32">
+        <v>0.1852643836168829</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1742985</v>
+      </c>
+      <c r="N32">
+        <v>0.348597</v>
+      </c>
+      <c r="O32">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P32">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q32">
+        <v>23.6173093446825</v>
+      </c>
+      <c r="R32">
+        <v>141.703856068095</v>
+      </c>
+      <c r="S32">
+        <v>0.0002272618072367808</v>
+      </c>
+      <c r="T32">
+        <v>0.0001680242274794396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>135.4992116666667</v>
+      </c>
+      <c r="H33">
+        <v>406.497635</v>
+      </c>
+      <c r="I33">
+        <v>0.167194491092333</v>
+      </c>
+      <c r="J33">
+        <v>0.1852643836168829</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.034127</v>
+      </c>
+      <c r="O33">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q33">
+        <v>1.541393865516111</v>
+      </c>
+      <c r="R33">
+        <v>13.872544789645</v>
+      </c>
+      <c r="S33">
+        <v>1.483233972288845E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.644926035275931E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>135.4992116666667</v>
+      </c>
+      <c r="H34">
+        <v>406.497635</v>
+      </c>
+      <c r="I34">
+        <v>0.167194491092333</v>
+      </c>
+      <c r="J34">
+        <v>0.1852643836168829</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N34">
+        <v>239.316913</v>
+      </c>
+      <c r="O34">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P34">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q34">
+        <v>10809.08435000008</v>
+      </c>
+      <c r="R34">
+        <v>97281.75915000075</v>
+      </c>
+      <c r="S34">
+        <v>0.1040123583980115</v>
+      </c>
+      <c r="T34">
+        <v>0.115351077116525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>135.4992116666667</v>
+      </c>
+      <c r="H35">
+        <v>406.497635</v>
+      </c>
+      <c r="I35">
+        <v>0.167194491092333</v>
+      </c>
+      <c r="J35">
+        <v>0.1852643836168829</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.150414</v>
+      </c>
+      <c r="N35">
+        <v>0.300828</v>
+      </c>
+      <c r="O35">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P35">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q35">
+        <v>20.38097842363</v>
+      </c>
+      <c r="R35">
+        <v>122.28587054178</v>
+      </c>
+      <c r="S35">
+        <v>0.0001961196308270762</v>
+      </c>
+      <c r="T35">
+        <v>0.0001449995045975291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>135.4992116666667</v>
+      </c>
+      <c r="H36">
+        <v>406.497635</v>
+      </c>
+      <c r="I36">
+        <v>0.167194491092333</v>
+      </c>
+      <c r="J36">
+        <v>0.1852643836168829</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.020322</v>
+      </c>
+      <c r="N36">
+        <v>33.060966</v>
+      </c>
+      <c r="O36">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P36">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q36">
+        <v>1493.244943312823</v>
+      </c>
+      <c r="R36">
+        <v>13439.20448981541</v>
+      </c>
+      <c r="S36">
+        <v>0.01436901805839554</v>
+      </c>
+      <c r="T36">
+        <v>0.01593543051682608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>135.4992116666667</v>
+      </c>
+      <c r="H37">
+        <v>406.497635</v>
+      </c>
+      <c r="I37">
+        <v>0.167194491092333</v>
+      </c>
+      <c r="J37">
+        <v>0.1852643836168829</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N37">
+        <v>111.303427</v>
+      </c>
+      <c r="O37">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P37">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q37">
+        <v>5027.175538099461</v>
+      </c>
+      <c r="R37">
+        <v>45244.57984289515</v>
+      </c>
+      <c r="S37">
+        <v>0.04837490085813916</v>
+      </c>
+      <c r="T37">
+        <v>0.05364840299110206</v>
       </c>
     </row>
   </sheetData>
